--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp2-Eng.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Bmp2-Eng.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,15 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,15 +98,6 @@
   </si>
   <si>
     <t>Eng</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.833520820306866</v>
+        <v>2.580074666666667</v>
       </c>
       <c r="H2">
-        <v>0.833520820306866</v>
+        <v>7.740224</v>
       </c>
       <c r="I2">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="J2">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>146.643993690282</v>
+        <v>172.744858</v>
       </c>
       <c r="N2">
-        <v>146.643993690282</v>
+        <v>518.234574</v>
       </c>
       <c r="O2">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861184</v>
       </c>
       <c r="P2">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861185</v>
       </c>
       <c r="Q2">
-        <v>122.2308219137987</v>
+        <v>445.6946319227307</v>
       </c>
       <c r="R2">
-        <v>122.2308219137987</v>
+        <v>4011.251687304575</v>
       </c>
       <c r="S2">
-        <v>0.1246122647176601</v>
+        <v>0.2525037488589484</v>
       </c>
       <c r="T2">
-        <v>0.1246122647176601</v>
+        <v>0.2525037488589485</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.833520820306866</v>
+        <v>2.580074666666667</v>
       </c>
       <c r="H3">
-        <v>0.833520820306866</v>
+        <v>7.740224</v>
       </c>
       <c r="I3">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="J3">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>44.1224622728881</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N3">
-        <v>44.1224622728881</v>
+        <v>133.658642</v>
       </c>
       <c r="O3">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="P3">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="Q3">
-        <v>36.77699094765644</v>
+        <v>114.9497587350898</v>
       </c>
       <c r="R3">
-        <v>36.77699094765644</v>
+        <v>1034.547828615808</v>
       </c>
       <c r="S3">
-        <v>0.03749352298980976</v>
+        <v>0.06512361364063697</v>
       </c>
       <c r="T3">
-        <v>0.03749352298980976</v>
+        <v>0.06512361364063701</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.833520820306866</v>
+        <v>2.580074666666667</v>
       </c>
       <c r="H4">
-        <v>0.833520820306866</v>
+        <v>7.740224</v>
       </c>
       <c r="I4">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="J4">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.54027655830689</v>
+        <v>8.185461333333334</v>
       </c>
       <c r="N4">
-        <v>7.54027655830689</v>
+        <v>24.556384</v>
       </c>
       <c r="O4">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003075</v>
       </c>
       <c r="P4">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003076</v>
       </c>
       <c r="Q4">
-        <v>6.284977502220592</v>
+        <v>21.11910142111289</v>
       </c>
       <c r="R4">
-        <v>6.284977502220592</v>
+        <v>190.071912790016</v>
       </c>
       <c r="S4">
-        <v>0.006407428731875658</v>
+        <v>0.01196481155350299</v>
       </c>
       <c r="T4">
-        <v>0.006407428731875658</v>
+        <v>0.01196481155350299</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.833520820306866</v>
+        <v>2.580074666666667</v>
       </c>
       <c r="H5">
-        <v>0.833520820306866</v>
+        <v>7.740224</v>
       </c>
       <c r="I5">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="J5">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.60073027231265</v>
+        <v>7.654602333333333</v>
       </c>
       <c r="N5">
-        <v>7.60073027231265</v>
+        <v>22.963807</v>
       </c>
       <c r="O5">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279531</v>
       </c>
       <c r="P5">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279532</v>
       </c>
       <c r="Q5">
-        <v>6.335366931509269</v>
+        <v>19.74944556364089</v>
       </c>
       <c r="R5">
-        <v>6.335366931509269</v>
+        <v>177.745010072768</v>
       </c>
       <c r="S5">
-        <v>0.006458799906536667</v>
+        <v>0.01118884699416709</v>
       </c>
       <c r="T5">
-        <v>0.006458799906536667</v>
+        <v>0.01118884699416709</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.833520820306866</v>
+        <v>2.580074666666667</v>
       </c>
       <c r="H6">
-        <v>0.833520820306866</v>
+        <v>7.740224</v>
       </c>
       <c r="I6">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="J6">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.39593395215089</v>
+        <v>2.398973</v>
       </c>
       <c r="N6">
-        <v>2.39593395215089</v>
+        <v>7.196919</v>
       </c>
       <c r="O6">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329009</v>
       </c>
       <c r="P6">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329011</v>
       </c>
       <c r="Q6">
-        <v>1.997060833197881</v>
+        <v>6.189529463317333</v>
       </c>
       <c r="R6">
-        <v>1.997060833197881</v>
+        <v>55.705765169856</v>
       </c>
       <c r="S6">
-        <v>0.002035969891286737</v>
+        <v>0.003506614801300761</v>
       </c>
       <c r="T6">
-        <v>0.002035969891286737</v>
+        <v>0.003506614801300762</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.833520820306866</v>
+        <v>2.580074666666667</v>
       </c>
       <c r="H7">
-        <v>0.833520820306866</v>
+        <v>7.740224</v>
       </c>
       <c r="I7">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="J7">
-        <v>0.1838366115940472</v>
+        <v>0.3568173349568206</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.0359416949545</v>
+        <v>8.571916666666667</v>
       </c>
       <c r="N7">
-        <v>8.0359416949545</v>
+        <v>25.71575</v>
       </c>
       <c r="O7">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467131</v>
       </c>
       <c r="P7">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467132</v>
       </c>
       <c r="Q7">
-        <v>6.698124713516623</v>
+        <v>22.11618503644444</v>
       </c>
       <c r="R7">
-        <v>6.698124713516623</v>
+        <v>199.045665328</v>
       </c>
       <c r="S7">
-        <v>0.006828625356878243</v>
+        <v>0.01252969910826425</v>
       </c>
       <c r="T7">
-        <v>0.006828625356878243</v>
+        <v>0.01252969910826426</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.73799040857009</v>
+        <v>1.785020666666667</v>
       </c>
       <c r="H8">
-        <v>1.73799040857009</v>
+        <v>5.355062</v>
       </c>
       <c r="I8">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="J8">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>146.643993690282</v>
+        <v>172.744858</v>
       </c>
       <c r="N8">
-        <v>146.643993690282</v>
+        <v>518.234574</v>
       </c>
       <c r="O8">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861184</v>
       </c>
       <c r="P8">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861185</v>
       </c>
       <c r="Q8">
-        <v>254.8658545081229</v>
+        <v>308.3531415903987</v>
       </c>
       <c r="R8">
-        <v>254.8658545081229</v>
+        <v>2775.178274313588</v>
       </c>
       <c r="S8">
-        <v>0.2598314470294298</v>
+        <v>0.1746943280158428</v>
       </c>
       <c r="T8">
-        <v>0.2598314470294298</v>
+        <v>0.1746943280158428</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.73799040857009</v>
+        <v>1.785020666666667</v>
       </c>
       <c r="H9">
-        <v>1.73799040857009</v>
+        <v>5.355062</v>
       </c>
       <c r="I9">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="J9">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>44.1224622728881</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N9">
-        <v>44.1224622728881</v>
+        <v>133.658642</v>
       </c>
       <c r="O9">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="P9">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="Q9">
-        <v>76.68441623277516</v>
+        <v>79.52781274953377</v>
       </c>
       <c r="R9">
-        <v>76.68441623277516</v>
+        <v>715.750314745804</v>
       </c>
       <c r="S9">
-        <v>0.07817847107382536</v>
+        <v>0.0450556713487435</v>
       </c>
       <c r="T9">
-        <v>0.07817847107382536</v>
+        <v>0.04505567134874351</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.73799040857009</v>
+        <v>1.785020666666667</v>
       </c>
       <c r="H10">
-        <v>1.73799040857009</v>
+        <v>5.355062</v>
       </c>
       <c r="I10">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="J10">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.54027655830689</v>
+        <v>8.185461333333334</v>
       </c>
       <c r="N10">
-        <v>7.54027655830689</v>
+        <v>24.556384</v>
       </c>
       <c r="O10">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003075</v>
       </c>
       <c r="P10">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003076</v>
       </c>
       <c r="Q10">
-        <v>13.10492833630326</v>
+        <v>14.61121764620089</v>
       </c>
       <c r="R10">
-        <v>13.10492833630326</v>
+        <v>131.500958815808</v>
       </c>
       <c r="S10">
-        <v>0.01336025376726222</v>
+        <v>0.00827783636330484</v>
       </c>
       <c r="T10">
-        <v>0.01336025376726222</v>
+        <v>0.008277836363304841</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.73799040857009</v>
+        <v>1.785020666666667</v>
       </c>
       <c r="H11">
-        <v>1.73799040857009</v>
+        <v>5.355062</v>
       </c>
       <c r="I11">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="J11">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.60073027231265</v>
+        <v>7.654602333333333</v>
       </c>
       <c r="N11">
-        <v>7.60073027231265</v>
+        <v>22.963807</v>
       </c>
       <c r="O11">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279531</v>
       </c>
       <c r="P11">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279532</v>
       </c>
       <c r="Q11">
-        <v>13.20999631140771</v>
+        <v>13.66362336011489</v>
       </c>
       <c r="R11">
-        <v>13.20999631140771</v>
+        <v>122.972610241034</v>
       </c>
       <c r="S11">
-        <v>0.01346736879865993</v>
+        <v>0.007740986483372884</v>
       </c>
       <c r="T11">
-        <v>0.01346736879865993</v>
+        <v>0.007740986483372888</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.73799040857009</v>
+        <v>1.785020666666667</v>
       </c>
       <c r="H12">
-        <v>1.73799040857009</v>
+        <v>5.355062</v>
       </c>
       <c r="I12">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="J12">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.39593395215089</v>
+        <v>2.398973</v>
       </c>
       <c r="N12">
-        <v>2.39593395215089</v>
+        <v>7.196919</v>
       </c>
       <c r="O12">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329009</v>
       </c>
       <c r="P12">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329011</v>
       </c>
       <c r="Q12">
-        <v>4.164110228405676</v>
+        <v>4.282216383775334</v>
       </c>
       <c r="R12">
-        <v>4.164110228405676</v>
+        <v>38.539947453978</v>
       </c>
       <c r="S12">
-        <v>0.004245240259134879</v>
+        <v>0.002426046025422941</v>
       </c>
       <c r="T12">
-        <v>0.004245240259134879</v>
+        <v>0.002426046025422941</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.73799040857009</v>
+        <v>1.785020666666667</v>
       </c>
       <c r="H13">
-        <v>1.73799040857009</v>
+        <v>5.355062</v>
       </c>
       <c r="I13">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="J13">
-        <v>0.3833212799373755</v>
+        <v>0.2468635211808523</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.0359416949545</v>
+        <v>8.571916666666667</v>
       </c>
       <c r="N13">
-        <v>8.0359416949545</v>
+        <v>25.71575</v>
       </c>
       <c r="O13">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467131</v>
       </c>
       <c r="P13">
-        <v>0.03714507843496045</v>
+        <v>0.03511516364467132</v>
       </c>
       <c r="Q13">
-        <v>13.96638958965939</v>
+        <v>15.30104840294445</v>
       </c>
       <c r="R13">
-        <v>13.96638958965939</v>
+        <v>137.7094356265</v>
       </c>
       <c r="S13">
-        <v>0.01423849900906324</v>
+        <v>0.008668652944165411</v>
       </c>
       <c r="T13">
-        <v>0.01423849900906324</v>
+        <v>0.008668652944165415</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.96251935991277</v>
+        <v>0.06561933333333334</v>
       </c>
       <c r="H14">
-        <v>1.96251935991277</v>
+        <v>0.196858</v>
       </c>
       <c r="I14">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="J14">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>146.643993690282</v>
+        <v>172.744858</v>
       </c>
       <c r="N14">
-        <v>146.643993690282</v>
+        <v>518.234574</v>
       </c>
       <c r="O14">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861184</v>
       </c>
       <c r="P14">
-        <v>0.6778424799997521</v>
+        <v>0.7076554979861185</v>
       </c>
       <c r="Q14">
-        <v>287.7916766321045</v>
+        <v>11.33540241872133</v>
       </c>
       <c r="R14">
-        <v>287.7916766321045</v>
+        <v>102.018621768492</v>
       </c>
       <c r="S14">
-        <v>0.2933987682526621</v>
+        <v>0.006421956650463201</v>
       </c>
       <c r="T14">
-        <v>0.2933987682526621</v>
+        <v>0.006421956650463202</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.96251935991277</v>
+        <v>0.06561933333333334</v>
       </c>
       <c r="H15">
-        <v>1.96251935991277</v>
+        <v>0.196858</v>
       </c>
       <c r="I15">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="J15">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>44.1224622728881</v>
+        <v>44.55288066666666</v>
       </c>
       <c r="N15">
-        <v>44.1224622728881</v>
+        <v>133.658642</v>
       </c>
       <c r="O15">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="P15">
-        <v>0.2039502505224799</v>
+        <v>0.1825124713980552</v>
       </c>
       <c r="Q15">
-        <v>86.59118641756369</v>
+        <v>2.923530327426222</v>
       </c>
       <c r="R15">
-        <v>86.59118641756369</v>
+        <v>26.311772946836</v>
       </c>
       <c r="S15">
-        <v>0.08827825645884474</v>
+        <v>0.001656296295051476</v>
       </c>
       <c r="T15">
-        <v>0.08827825645884474</v>
+        <v>0.001656296295051477</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.96251935991277</v>
+        <v>0.06561933333333334</v>
       </c>
       <c r="H16">
-        <v>1.96251935991277</v>
+        <v>0.196858</v>
       </c>
       <c r="I16">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="J16">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.54027655830689</v>
+        <v>8.185461333333334</v>
       </c>
       <c r="N16">
-        <v>7.54027655830689</v>
+        <v>24.556384</v>
       </c>
       <c r="O16">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003075</v>
       </c>
       <c r="P16">
-        <v>0.03485393184913954</v>
+        <v>0.03353203553003076</v>
       </c>
       <c r="Q16">
-        <v>14.7979387247737</v>
+        <v>0.5371245157191112</v>
       </c>
       <c r="R16">
-        <v>14.7979387247737</v>
+        <v>4.834120641472</v>
       </c>
       <c r="S16">
-        <v>0.01508624935000166</v>
+        <v>0.0003043024171909614</v>
       </c>
       <c r="T16">
-        <v>0.01508624935000166</v>
+        <v>0.0003043024171909614</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.96251935991277</v>
+        <v>0.06561933333333334</v>
       </c>
       <c r="H17">
-        <v>1.96251935991277</v>
+        <v>0.196858</v>
       </c>
       <c r="I17">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="J17">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.60073027231265</v>
+        <v>7.654602333333333</v>
       </c>
       <c r="N17">
-        <v>7.60073027231265</v>
+        <v>22.963807</v>
       </c>
       <c r="O17">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279531</v>
       </c>
       <c r="P17">
-        <v>0.03513337115241853</v>
+        <v>0.03135735262279532</v>
       </c>
       <c r="Q17">
-        <v>14.91658030888864</v>
+        <v>0.5022899020451111</v>
       </c>
       <c r="R17">
-        <v>14.91658030888864</v>
+        <v>4.520609118406</v>
       </c>
       <c r="S17">
-        <v>0.01520720244722192</v>
+        <v>0.000284567222031009</v>
       </c>
       <c r="T17">
-        <v>0.01520720244722192</v>
+        <v>0.0002845672220310091</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.96251935991277</v>
+        <v>0.06561933333333334</v>
       </c>
       <c r="H18">
-        <v>1.96251935991277</v>
+        <v>0.196858</v>
       </c>
       <c r="I18">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="J18">
-        <v>0.4328421084685773</v>
+        <v>0.009074975985828031</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.39593395215089</v>
+        <v>2.398973</v>
       </c>
       <c r="N18">
-        <v>2.39593395215089</v>
+        <v>7.196919</v>
       </c>
       <c r="O18">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329009</v>
       </c>
       <c r="P18">
-        <v>0.01107488804124947</v>
+        <v>0.009827478818329011</v>
       </c>
       <c r="Q18">
-        <v>4.702066766168437</v>
+        <v>0.1574190089446667</v>
       </c>
       <c r="R18">
-        <v>4.702066766168437</v>
+        <v>1.416771080502</v>
       </c>
       <c r="S18">
-        <v>0.004793677890827852</v>
+        <v>8.91841342775694E-05</v>
       </c>
       <c r="T18">
-        <v>0.004793677890827852</v>
+        <v>8.918413427756942E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,1177 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.06561933333333334</v>
+      </c>
+      <c r="H19">
+        <v>0.196858</v>
+      </c>
+      <c r="I19">
+        <v>0.009074975985828031</v>
+      </c>
+      <c r="J19">
+        <v>0.009074975985828031</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.571916666666667</v>
+      </c>
+      <c r="N19">
+        <v>25.71575</v>
+      </c>
+      <c r="O19">
+        <v>0.03511516364467131</v>
+      </c>
+      <c r="P19">
+        <v>0.03511516364467132</v>
+      </c>
+      <c r="Q19">
+        <v>0.5624834570555556</v>
+      </c>
+      <c r="R19">
+        <v>5.0623511135</v>
+      </c>
+      <c r="S19">
+        <v>0.0003186692668138137</v>
+      </c>
+      <c r="T19">
+        <v>0.0003186692668138138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.660166</v>
+      </c>
+      <c r="H20">
+        <v>1.980498</v>
+      </c>
+      <c r="I20">
+        <v>0.09129916889321463</v>
+      </c>
+      <c r="J20">
+        <v>0.09129916889321461</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>172.744858</v>
+      </c>
+      <c r="N20">
+        <v>518.234574</v>
+      </c>
+      <c r="O20">
+        <v>0.7076554979861184</v>
+      </c>
+      <c r="P20">
+        <v>0.7076554979861185</v>
+      </c>
+      <c r="Q20">
+        <v>114.040281926428</v>
+      </c>
+      <c r="R20">
+        <v>1026.362537337852</v>
+      </c>
+      <c r="S20">
+        <v>0.06460835882884652</v>
+      </c>
+      <c r="T20">
+        <v>0.06460835882884652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.660166</v>
+      </c>
+      <c r="H21">
+        <v>1.980498</v>
+      </c>
+      <c r="I21">
+        <v>0.09129916889321463</v>
+      </c>
+      <c r="J21">
+        <v>0.09129916889321461</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>44.55288066666666</v>
+      </c>
+      <c r="N21">
+        <v>133.658642</v>
+      </c>
+      <c r="O21">
+        <v>0.1825124713980552</v>
+      </c>
+      <c r="P21">
+        <v>0.1825124713980552</v>
+      </c>
+      <c r="Q21">
+        <v>29.41229701819066</v>
+      </c>
+      <c r="R21">
+        <v>264.710673163716</v>
+      </c>
+      <c r="S21">
+        <v>0.01666323695128904</v>
+      </c>
+      <c r="T21">
+        <v>0.01666323695128905</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G22">
+        <v>0.660166</v>
+      </c>
+      <c r="H22">
+        <v>1.980498</v>
+      </c>
+      <c r="I22">
+        <v>0.09129916889321463</v>
+      </c>
+      <c r="J22">
+        <v>0.09129916889321461</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>8.185461333333334</v>
+      </c>
+      <c r="N22">
+        <v>24.556384</v>
+      </c>
+      <c r="O22">
+        <v>0.03353203553003075</v>
+      </c>
+      <c r="P22">
+        <v>0.03353203553003076</v>
+      </c>
+      <c r="Q22">
+        <v>5.403763266581334</v>
+      </c>
+      <c r="R22">
+        <v>48.633869399232</v>
+      </c>
+      <c r="S22">
+        <v>0.003061446975189551</v>
+      </c>
+      <c r="T22">
+        <v>0.003061446975189551</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G23">
+        <v>0.660166</v>
+      </c>
+      <c r="H23">
+        <v>1.980498</v>
+      </c>
+      <c r="I23">
+        <v>0.09129916889321463</v>
+      </c>
+      <c r="J23">
+        <v>0.09129916889321461</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>7.654602333333333</v>
+      </c>
+      <c r="N23">
+        <v>22.963807</v>
+      </c>
+      <c r="O23">
+        <v>0.03135735262279531</v>
+      </c>
+      <c r="P23">
+        <v>0.03135735262279532</v>
+      </c>
+      <c r="Q23">
+        <v>5.053308203987333</v>
+      </c>
+      <c r="R23">
+        <v>45.479773835886</v>
+      </c>
+      <c r="S23">
+        <v>0.002862900233152675</v>
+      </c>
+      <c r="T23">
+        <v>0.002862900233152676</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G24">
+        <v>0.660166</v>
+      </c>
+      <c r="H24">
+        <v>1.980498</v>
+      </c>
+      <c r="I24">
+        <v>0.09129916889321463</v>
+      </c>
+      <c r="J24">
+        <v>0.09129916889321461</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2.398973</v>
+      </c>
+      <c r="N24">
+        <v>7.196919</v>
+      </c>
+      <c r="O24">
+        <v>0.009827478818329009</v>
+      </c>
+      <c r="P24">
+        <v>0.009827478818329011</v>
+      </c>
+      <c r="Q24">
+        <v>1.583720409518</v>
+      </c>
+      <c r="R24">
+        <v>14.253483685662</v>
+      </c>
+      <c r="S24">
+        <v>0.0008972406484291096</v>
+      </c>
+      <c r="T24">
+        <v>0.0008972406484291096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.660166</v>
+      </c>
+      <c r="H25">
+        <v>1.980498</v>
+      </c>
+      <c r="I25">
+        <v>0.09129916889321463</v>
+      </c>
+      <c r="J25">
+        <v>0.09129916889321461</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>8.571916666666667</v>
+      </c>
+      <c r="N25">
+        <v>25.71575</v>
+      </c>
+      <c r="O25">
+        <v>0.03511516364467131</v>
+      </c>
+      <c r="P25">
+        <v>0.03511516364467132</v>
+      </c>
+      <c r="Q25">
+        <v>5.658887938166667</v>
+      </c>
+      <c r="R25">
+        <v>50.9299914435</v>
+      </c>
+      <c r="S25">
+        <v>0.003205985256307716</v>
+      </c>
+      <c r="T25">
+        <v>0.003205985256307717</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G26">
+        <v>0.06028266666666667</v>
+      </c>
+      <c r="H26">
+        <v>0.180848</v>
+      </c>
+      <c r="I26">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="J26">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>172.744858</v>
+      </c>
+      <c r="N26">
+        <v>518.234574</v>
+      </c>
+      <c r="O26">
+        <v>0.7076554979861184</v>
+      </c>
+      <c r="P26">
+        <v>0.7076554979861185</v>
+      </c>
+      <c r="Q26">
+        <v>10.41352069319467</v>
+      </c>
+      <c r="R26">
+        <v>93.721686238752</v>
+      </c>
+      <c r="S26">
+        <v>0.005899673959518886</v>
+      </c>
+      <c r="T26">
+        <v>0.005899673959518887</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G27">
+        <v>0.06028266666666667</v>
+      </c>
+      <c r="H27">
+        <v>0.180848</v>
+      </c>
+      <c r="I27">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="J27">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>44.55288066666666</v>
+      </c>
+      <c r="N27">
+        <v>133.658642</v>
+      </c>
+      <c r="O27">
+        <v>0.1825124713980552</v>
+      </c>
+      <c r="P27">
+        <v>0.1825124713980552</v>
+      </c>
+      <c r="Q27">
+        <v>2.685766454268444</v>
+      </c>
+      <c r="R27">
+        <v>24.171898088416</v>
+      </c>
+      <c r="S27">
+        <v>0.001521593597250146</v>
+      </c>
+      <c r="T27">
+        <v>0.001521593597250147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.96251935991277</v>
-      </c>
-      <c r="H19">
-        <v>1.96251935991277</v>
-      </c>
-      <c r="I19">
-        <v>0.4328421084685773</v>
-      </c>
-      <c r="J19">
-        <v>0.4328421084685773</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>8.0359416949545</v>
-      </c>
-      <c r="N19">
-        <v>8.0359416949545</v>
-      </c>
-      <c r="O19">
-        <v>0.03714507843496045</v>
-      </c>
-      <c r="P19">
-        <v>0.03714507843496045</v>
-      </c>
-      <c r="Q19">
-        <v>15.77069115147845</v>
-      </c>
-      <c r="R19">
-        <v>15.77069115147845</v>
-      </c>
-      <c r="S19">
-        <v>0.01607795406901896</v>
-      </c>
-      <c r="T19">
-        <v>0.01607795406901896</v>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G28">
+        <v>0.06028266666666667</v>
+      </c>
+      <c r="H28">
+        <v>0.180848</v>
+      </c>
+      <c r="I28">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="J28">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>8.185461333333334</v>
+      </c>
+      <c r="N28">
+        <v>24.556384</v>
+      </c>
+      <c r="O28">
+        <v>0.03353203553003075</v>
+      </c>
+      <c r="P28">
+        <v>0.03353203553003076</v>
+      </c>
+      <c r="Q28">
+        <v>0.4934414370702223</v>
+      </c>
+      <c r="R28">
+        <v>4.440972933632001</v>
+      </c>
+      <c r="S28">
+        <v>0.0002795542144294414</v>
+      </c>
+      <c r="T28">
+        <v>0.0002795542144294415</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G29">
+        <v>0.06028266666666667</v>
+      </c>
+      <c r="H29">
+        <v>0.180848</v>
+      </c>
+      <c r="I29">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="J29">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>7.654602333333333</v>
+      </c>
+      <c r="N29">
+        <v>22.963807</v>
+      </c>
+      <c r="O29">
+        <v>0.03135735262279531</v>
+      </c>
+      <c r="P29">
+        <v>0.03135735262279532</v>
+      </c>
+      <c r="Q29">
+        <v>0.4614398409262223</v>
+      </c>
+      <c r="R29">
+        <v>4.152958568336</v>
+      </c>
+      <c r="S29">
+        <v>0.0002614240364621398</v>
+      </c>
+      <c r="T29">
+        <v>0.00026142403646214</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G30">
+        <v>0.06028266666666667</v>
+      </c>
+      <c r="H30">
+        <v>0.180848</v>
+      </c>
+      <c r="I30">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="J30">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>2.398973</v>
+      </c>
+      <c r="N30">
+        <v>7.196919</v>
+      </c>
+      <c r="O30">
+        <v>0.009827478818329009</v>
+      </c>
+      <c r="P30">
+        <v>0.009827478818329011</v>
+      </c>
+      <c r="Q30">
+        <v>0.1446164897013334</v>
+      </c>
+      <c r="R30">
+        <v>1.301548407312</v>
+      </c>
+      <c r="S30">
+        <v>8.193099755067039E-05</v>
+      </c>
+      <c r="T30">
+        <v>8.19309975506704E-05</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G31">
+        <v>0.06028266666666667</v>
+      </c>
+      <c r="H31">
+        <v>0.180848</v>
+      </c>
+      <c r="I31">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="J31">
+        <v>0.008336929447038108</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>8.571916666666667</v>
+      </c>
+      <c r="N31">
+        <v>25.71575</v>
+      </c>
+      <c r="O31">
+        <v>0.03511516364467131</v>
+      </c>
+      <c r="P31">
+        <v>0.03511516364467132</v>
+      </c>
+      <c r="Q31">
+        <v>0.5167379951111112</v>
+      </c>
+      <c r="R31">
+        <v>4.650641956</v>
+      </c>
+      <c r="S31">
+        <v>0.0002927526418268222</v>
+      </c>
+      <c r="T31">
+        <v>0.0002927526418268223</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>2.079636333333333</v>
+      </c>
+      <c r="H32">
+        <v>6.238909</v>
+      </c>
+      <c r="I32">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="J32">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>172.744858</v>
+      </c>
+      <c r="N32">
+        <v>518.234574</v>
+      </c>
+      <c r="O32">
+        <v>0.7076554979861184</v>
+      </c>
+      <c r="P32">
+        <v>0.7076554979861185</v>
+      </c>
+      <c r="Q32">
+        <v>359.2464830933073</v>
+      </c>
+      <c r="R32">
+        <v>3233.218347839766</v>
+      </c>
+      <c r="S32">
+        <v>0.2035274316724985</v>
+      </c>
+      <c r="T32">
+        <v>0.2035274316724986</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>2.079636333333333</v>
+      </c>
+      <c r="H33">
+        <v>6.238909</v>
+      </c>
+      <c r="I33">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="J33">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>44.55288066666666</v>
+      </c>
+      <c r="N33">
+        <v>133.658642</v>
+      </c>
+      <c r="O33">
+        <v>0.1825124713980552</v>
+      </c>
+      <c r="P33">
+        <v>0.1825124713980552</v>
+      </c>
+      <c r="Q33">
+        <v>92.6537893890642</v>
+      </c>
+      <c r="R33">
+        <v>833.8841045015779</v>
+      </c>
+      <c r="S33">
+        <v>0.05249205956508401</v>
+      </c>
+      <c r="T33">
+        <v>0.05249205956508404</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>2.079636333333333</v>
+      </c>
+      <c r="H34">
+        <v>6.238909</v>
+      </c>
+      <c r="I34">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="J34">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>8.185461333333334</v>
+      </c>
+      <c r="N34">
+        <v>24.556384</v>
+      </c>
+      <c r="O34">
+        <v>0.03353203553003075</v>
+      </c>
+      <c r="P34">
+        <v>0.03353203553003076</v>
+      </c>
+      <c r="Q34">
+        <v>17.02278279389511</v>
+      </c>
+      <c r="R34">
+        <v>153.205045145056</v>
+      </c>
+      <c r="S34">
+        <v>0.009644084006412965</v>
+      </c>
+      <c r="T34">
+        <v>0.009644084006412968</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>2.079636333333333</v>
+      </c>
+      <c r="H35">
+        <v>6.238909</v>
+      </c>
+      <c r="I35">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="J35">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>7.654602333333333</v>
+      </c>
+      <c r="N35">
+        <v>22.963807</v>
+      </c>
+      <c r="O35">
+        <v>0.03135735262279531</v>
+      </c>
+      <c r="P35">
+        <v>0.03135735262279532</v>
+      </c>
+      <c r="Q35">
+        <v>15.91878912961811</v>
+      </c>
+      <c r="R35">
+        <v>143.269102166563</v>
+      </c>
+      <c r="S35">
+        <v>0.009018627653609508</v>
+      </c>
+      <c r="T35">
+        <v>0.009018627653609512</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>2.079636333333333</v>
+      </c>
+      <c r="H36">
+        <v>6.238909</v>
+      </c>
+      <c r="I36">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="J36">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>2.398973</v>
+      </c>
+      <c r="N36">
+        <v>7.196919</v>
+      </c>
+      <c r="O36">
+        <v>0.009827478818329009</v>
+      </c>
+      <c r="P36">
+        <v>0.009827478818329011</v>
+      </c>
+      <c r="Q36">
+        <v>4.988991413485667</v>
+      </c>
+      <c r="R36">
+        <v>44.900922721371</v>
+      </c>
+      <c r="S36">
+        <v>0.002826462211347957</v>
+      </c>
+      <c r="T36">
+        <v>0.002826462211347958</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>2.079636333333333</v>
+      </c>
+      <c r="H37">
+        <v>6.238909</v>
+      </c>
+      <c r="I37">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="J37">
+        <v>0.2876080695362463</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>8.571916666666667</v>
+      </c>
+      <c r="N37">
+        <v>25.71575</v>
+      </c>
+      <c r="O37">
+        <v>0.03511516364467131</v>
+      </c>
+      <c r="P37">
+        <v>0.03511516364467132</v>
+      </c>
+      <c r="Q37">
+        <v>17.82646934630555</v>
+      </c>
+      <c r="R37">
+        <v>160.43822411675</v>
+      </c>
+      <c r="S37">
+        <v>0.01009940442729329</v>
+      </c>
+      <c r="T37">
+        <v>0.0100994044272933</v>
       </c>
     </row>
   </sheetData>
